--- a/data/Reprodat.xlsx
+++ b/data/Reprodat.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmodel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{1D4B07E4-2860-4C36-A81B-6C163E818836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9BEA3691-801B-4EFC-975C-4203BD9F4B4B}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{1D4B07E4-2860-4C36-A81B-6C163E818836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83312F36-362C-47F9-B2EC-D5EE517A52F9}"/>
   <bookViews>
-    <workbookView xWindow="-23025" yWindow="1140" windowWidth="22200" windowHeight="13830" xr2:uid="{10DDCBDF-9E76-481C-B536-CA468E4BB475}"/>
+    <workbookView xWindow="1050" yWindow="2520" windowWidth="27750" windowHeight="13680" xr2:uid="{10DDCBDF-9E76-481C-B536-CA468E4BB475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$279</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -426,16 +429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E61F25-84BD-45F0-9582-3BE626820956}">
   <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1171875" style="2"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -452,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1954</v>
       </c>
@@ -466,11 +469,11 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(C2=0,"",D2/C2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ref="E2:E65" si="0">IF(C2=0,"",D2/C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1954</v>
       </c>
@@ -484,11 +487,11 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(C3=0,"",D3/C3)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1954</v>
       </c>
@@ -502,11 +505,11 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>IF(C4=0,"",D4/C4)</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1954</v>
       </c>
@@ -520,11 +523,11 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <f>IF(C5=0,"",D5/C5)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -538,11 +541,11 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <f>IF(C6=0,"",D6/C6)</f>
+        <f t="shared" si="0"/>
         <v>0.87878787878787878</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1964</v>
       </c>
@@ -556,11 +559,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IF(C7=0,"",D7/C7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1964</v>
       </c>
@@ -574,11 +577,11 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(C8=0,"",D8/C8)</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1964</v>
       </c>
@@ -592,11 +595,11 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(C9=0,"",D9/C9)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1964</v>
       </c>
@@ -610,11 +613,11 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <f>IF(C10=0,"",D10/C10)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1964</v>
       </c>
@@ -628,11 +631,11 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <f>IF(C11=0,"",D11/C11)</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1965</v>
       </c>
@@ -646,11 +649,11 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>IF(C12=0,"",D12/C12)</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1965</v>
       </c>
@@ -664,11 +667,11 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>IF(C13=0,"",D13/C13)</f>
+        <f t="shared" si="0"/>
         <v>0.11363636363636363</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1965</v>
       </c>
@@ -682,11 +685,11 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <f>IF(C14=0,"",D14/C14)</f>
+        <f t="shared" si="0"/>
         <v>0.54054054054054057</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1965</v>
       </c>
@@ -700,11 +703,11 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <f>IF(C15=0,"",D15/C15)</f>
+        <f t="shared" si="0"/>
         <v>0.71052631578947367</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1965</v>
       </c>
@@ -718,11 +721,11 @@
         <v>96</v>
       </c>
       <c r="E16">
-        <f>IF(C16=0,"",D16/C16)</f>
+        <f t="shared" si="0"/>
         <v>0.88073394495412849</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1966</v>
       </c>
@@ -736,11 +739,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(C17=0,"",D17/C17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -754,11 +757,11 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(C18=0,"",D18/C18)</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1966</v>
       </c>
@@ -772,11 +775,11 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <f>IF(C19=0,"",D19/C19)</f>
+        <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -790,11 +793,11 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <f>IF(C20=0,"",D20/C20)</f>
+        <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1966</v>
       </c>
@@ -808,11 +811,11 @@
         <v>43</v>
       </c>
       <c r="E21">
-        <f>IF(C21=0,"",D21/C21)</f>
+        <f t="shared" si="0"/>
         <v>0.87755102040816324</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1967</v>
       </c>
@@ -826,11 +829,11 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(C22=0,"",D22/C22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -844,11 +847,11 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <f>IF(C23=0,"",D23/C23)</f>
+        <f t="shared" si="0"/>
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1967</v>
       </c>
@@ -862,11 +865,11 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <f>IF(C24=0,"",D24/C24)</f>
+        <f t="shared" si="0"/>
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1967</v>
       </c>
@@ -880,11 +883,11 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <f>IF(C25=0,"",D25/C25)</f>
+        <f t="shared" si="0"/>
         <v>0.96551724137931039</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1967</v>
       </c>
@@ -898,11 +901,11 @@
         <v>109</v>
       </c>
       <c r="E26">
-        <f>IF(C26=0,"",D26/C26)</f>
+        <f t="shared" si="0"/>
         <v>0.88617886178861793</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1968</v>
       </c>
@@ -916,11 +919,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF(C27=0,"",D27/C27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1968</v>
       </c>
@@ -934,11 +937,11 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <f>IF(C28=0,"",D28/C28)</f>
+        <f t="shared" si="0"/>
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1968</v>
       </c>
@@ -952,11 +955,11 @@
         <v>14</v>
       </c>
       <c r="E29">
-        <f>IF(C29=0,"",D29/C29)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1968</v>
       </c>
@@ -970,11 +973,11 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <f>IF(C30=0,"",D30/C30)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1968</v>
       </c>
@@ -988,11 +991,11 @@
         <v>48</v>
       </c>
       <c r="E31">
-        <f>IF(C31=0,"",D31/C31)</f>
+        <f t="shared" si="0"/>
         <v>0.87272727272727268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1969</v>
       </c>
@@ -1006,11 +1009,11 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(C32=0,"",D32/C32)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1969</v>
       </c>
@@ -1024,11 +1027,11 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <f>IF(C33=0,"",D33/C33)</f>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1969</v>
       </c>
@@ -1042,11 +1045,11 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <f>IF(C34=0,"",D34/C34)</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1969</v>
       </c>
@@ -1060,11 +1063,11 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <f>IF(C35=0,"",D35/C35)</f>
+        <f t="shared" si="0"/>
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1969</v>
       </c>
@@ -1078,11 +1081,11 @@
         <v>146</v>
       </c>
       <c r="E36">
-        <f>IF(C36=0,"",D36/C36)</f>
+        <f t="shared" si="0"/>
         <v>0.88484848484848488</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1970</v>
       </c>
@@ -1096,11 +1099,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(C37=0,"",D37/C37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1970</v>
       </c>
@@ -1114,11 +1117,11 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <f>IF(C38=0,"",D38/C38)</f>
+        <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1970</v>
       </c>
@@ -1132,11 +1135,11 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <f>IF(C39=0,"",D39/C39)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1970</v>
       </c>
@@ -1150,11 +1153,11 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <f>IF(C40=0,"",D40/C40)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1970</v>
       </c>
@@ -1168,11 +1171,11 @@
         <v>92</v>
       </c>
       <c r="E41">
-        <f>IF(C41=0,"",D41/C41)</f>
+        <f t="shared" si="0"/>
         <v>0.85981308411214952</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1978</v>
       </c>
@@ -1186,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>IF(C42=0,"",D42/C42)</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1978</v>
       </c>
@@ -1204,11 +1207,11 @@
         <v>23</v>
       </c>
       <c r="E43">
-        <f>IF(C43=0,"",D43/C43)</f>
+        <f t="shared" si="0"/>
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1978</v>
       </c>
@@ -1222,11 +1225,11 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <f>IF(C44=0,"",D44/C44)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1978</v>
       </c>
@@ -1240,11 +1243,11 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <f>IF(C45=0,"",D45/C45)</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1978</v>
       </c>
@@ -1256,11 +1259,11 @@
       </c>
       <c r="D46"/>
       <c r="E46" t="str">
-        <f>IF(C46=0,"",D46/C46)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1979</v>
       </c>
@@ -1274,11 +1277,11 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <f>IF(C47=0,"",D47/C47)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1979</v>
       </c>
@@ -1292,11 +1295,11 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f>IF(C48=0,"",D48/C48)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1979</v>
       </c>
@@ -1308,11 +1311,11 @@
       </c>
       <c r="D49"/>
       <c r="E49" t="str">
-        <f>IF(C49=0,"",D49/C49)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1979</v>
       </c>
@@ -1326,11 +1329,11 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <f>IF(C50=0,"",D50/C50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1979</v>
       </c>
@@ -1344,11 +1347,11 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <f>IF(C51=0,"",D51/C51)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1980</v>
       </c>
@@ -1362,11 +1365,11 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f>IF(C52=0,"",D52/C52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1980</v>
       </c>
@@ -1380,11 +1383,11 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f>IF(C53=0,"",D53/C53)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1980</v>
       </c>
@@ -1398,11 +1401,11 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <f>IF(C54=0,"",D54/C54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1980</v>
       </c>
@@ -1414,11 +1417,11 @@
       </c>
       <c r="D55"/>
       <c r="E55" t="str">
-        <f>IF(C55=0,"",D55/C55)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1980</v>
       </c>
@@ -1432,11 +1435,11 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <f>IF(C56=0,"",D56/C56)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1981</v>
       </c>
@@ -1450,11 +1453,11 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <f>IF(C57=0,"",D57/C57)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1981</v>
       </c>
@@ -1468,11 +1471,11 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <f>IF(C58=0,"",D58/C58)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1981</v>
       </c>
@@ -1486,11 +1489,11 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f>IF(C59=0,"",D59/C59)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1981</v>
       </c>
@@ -1504,11 +1507,11 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <f>IF(C60=0,"",D60/C60)</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1981</v>
       </c>
@@ -1522,11 +1525,11 @@
         <v>14</v>
       </c>
       <c r="E61">
-        <f>IF(C61=0,"",D61/C61)</f>
+        <f t="shared" si="0"/>
         <v>0.82352941176470584</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1982</v>
       </c>
@@ -1540,11 +1543,11 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f>IF(C62=0,"",D62/C62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1982</v>
       </c>
@@ -1558,11 +1561,11 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f>IF(C63=0,"",D63/C63)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1982</v>
       </c>
@@ -1576,11 +1579,11 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <f>IF(C64=0,"",D64/C64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1982</v>
       </c>
@@ -1594,11 +1597,11 @@
         <v>3</v>
       </c>
       <c r="E65">
-        <f>IF(C65=0,"",D65/C65)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1982</v>
       </c>
@@ -1612,11 +1615,11 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <f>IF(C66=0,"",D66/C66)</f>
+        <f t="shared" ref="E66:E129" si="1">IF(C66=0,"",D66/C66)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1985</v>
       </c>
@@ -1630,11 +1633,11 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <f>IF(C67=0,"",D67/C67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1985</v>
       </c>
@@ -1648,11 +1651,11 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <f>IF(C68=0,"",D68/C68)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1985</v>
       </c>
@@ -1666,11 +1669,11 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <f>IF(C69=0,"",D69/C69)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1985</v>
       </c>
@@ -1684,11 +1687,11 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <f>IF(C70=0,"",D70/C70)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1985</v>
       </c>
@@ -1702,11 +1705,11 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <f>IF(C71=0,"",D71/C71)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1986</v>
       </c>
@@ -1720,11 +1723,11 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <f>IF(C72=0,"",D72/C72)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1986</v>
       </c>
@@ -1736,11 +1739,11 @@
       </c>
       <c r="D73"/>
       <c r="E73" t="str">
-        <f>IF(C73=0,"",D73/C73)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1986</v>
       </c>
@@ -1754,11 +1757,11 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <f>IF(C74=0,"",D74/C74)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1986</v>
       </c>
@@ -1772,11 +1775,11 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <f>IF(C75=0,"",D75/C75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1986</v>
       </c>
@@ -1790,11 +1793,11 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <f>IF(C76=0,"",D76/C76)</f>
+        <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1987</v>
       </c>
@@ -1808,11 +1811,11 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <f>IF(C77=0,"",D77/C77)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1987</v>
       </c>
@@ -1826,11 +1829,11 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <f>IF(C78=0,"",D78/C78)</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1987</v>
       </c>
@@ -1844,11 +1847,11 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <f>IF(C79=0,"",D79/C79)</f>
+        <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1987</v>
       </c>
@@ -1862,11 +1865,11 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <f>IF(C80=0,"",D80/C80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1987</v>
       </c>
@@ -1880,11 +1883,11 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <f>IF(C81=0,"",D81/C81)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1988</v>
       </c>
@@ -1898,11 +1901,11 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <f>IF(C82=0,"",D82/C82)</f>
+        <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1988</v>
       </c>
@@ -1916,11 +1919,11 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f>IF(C83=0,"",D83/C83)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1988</v>
       </c>
@@ -1934,11 +1937,11 @@
         <v>3</v>
       </c>
       <c r="E84">
-        <f>IF(C84=0,"",D84/C84)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1988</v>
       </c>
@@ -1950,11 +1953,11 @@
       </c>
       <c r="D85"/>
       <c r="E85" t="str">
-        <f>IF(C85=0,"",D85/C85)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1988</v>
       </c>
@@ -1968,11 +1971,11 @@
         <v>14</v>
       </c>
       <c r="E86">
-        <f>IF(C86=0,"",D86/C86)</f>
+        <f t="shared" si="1"/>
         <v>0.73684210526315785</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1989</v>
       </c>
@@ -1986,11 +1989,11 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <f>IF(C87=0,"",D87/C87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1989</v>
       </c>
@@ -2004,11 +2007,11 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <f>IF(C88=0,"",D88/C88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1989</v>
       </c>
@@ -2022,11 +2025,11 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <f>IF(C89=0,"",D89/C89)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1989</v>
       </c>
@@ -2040,11 +2043,11 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <f>IF(C90=0,"",D90/C90)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1989</v>
       </c>
@@ -2058,11 +2061,11 @@
         <v>21</v>
       </c>
       <c r="E91">
-        <f>IF(C91=0,"",D91/C91)</f>
+        <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1990</v>
       </c>
@@ -2076,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <f>IF(C92=0,"",D92/C92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1990</v>
       </c>
@@ -2094,11 +2097,11 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <f>IF(C93=0,"",D93/C93)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1990</v>
       </c>
@@ -2112,11 +2115,11 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <f>IF(C94=0,"",D94/C94)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1990</v>
       </c>
@@ -2130,11 +2133,11 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <f>IF(C95=0,"",D95/C95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1990</v>
       </c>
@@ -2148,11 +2151,11 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <f>IF(C96=0,"",D96/C96)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1991</v>
       </c>
@@ -2166,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <f>IF(C97=0,"",D97/C97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1991</v>
       </c>
@@ -2184,11 +2187,11 @@
         <v>2</v>
       </c>
       <c r="E98">
-        <f>IF(C98=0,"",D98/C98)</f>
+        <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1991</v>
       </c>
@@ -2202,11 +2205,11 @@
         <v>4</v>
       </c>
       <c r="E99">
-        <f>IF(C99=0,"",D99/C99)</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1991</v>
       </c>
@@ -2220,11 +2223,11 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <f>IF(C100=0,"",D100/C100)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1991</v>
       </c>
@@ -2238,11 +2241,11 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <f>IF(C101=0,"",D101/C101)</f>
+        <f t="shared" si="1"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1992</v>
       </c>
@@ -2256,11 +2259,11 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <f>IF(C102=0,"",D102/C102)</f>
+        <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1992</v>
       </c>
@@ -2274,11 +2277,11 @@
         <v>3</v>
       </c>
       <c r="E103">
-        <f>IF(C103=0,"",D103/C103)</f>
+        <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1992</v>
       </c>
@@ -2292,11 +2295,11 @@
         <v>3</v>
       </c>
       <c r="E104">
-        <f>IF(C104=0,"",D104/C104)</f>
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1992</v>
       </c>
@@ -2310,11 +2313,11 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <f>IF(C105=0,"",D105/C105)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1992</v>
       </c>
@@ -2328,11 +2331,11 @@
         <v>21</v>
       </c>
       <c r="E106">
-        <f>IF(C106=0,"",D106/C106)</f>
+        <f t="shared" si="1"/>
         <v>0.65625</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1993</v>
       </c>
@@ -2346,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <f>IF(C107=0,"",D107/C107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1993</v>
       </c>
@@ -2364,11 +2367,11 @@
         <v>2</v>
       </c>
       <c r="E108">
-        <f>IF(C108=0,"",D108/C108)</f>
+        <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1993</v>
       </c>
@@ -2382,11 +2385,11 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <f>IF(C109=0,"",D109/C109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1993</v>
       </c>
@@ -2400,11 +2403,11 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <f>IF(C110=0,"",D110/C110)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1993</v>
       </c>
@@ -2418,11 +2421,11 @@
         <v>16</v>
       </c>
       <c r="E111">
-        <f>IF(C111=0,"",D111/C111)</f>
+        <f t="shared" si="1"/>
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1994</v>
       </c>
@@ -2436,11 +2439,11 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <f>IF(C112=0,"",D112/C112)</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1994</v>
       </c>
@@ -2454,11 +2457,11 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <f>IF(C113=0,"",D113/C113)</f>
+        <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1994</v>
       </c>
@@ -2472,11 +2475,11 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <f>IF(C114=0,"",D114/C114)</f>
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1994</v>
       </c>
@@ -2490,11 +2493,11 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <f>IF(C115=0,"",D115/C115)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1994</v>
       </c>
@@ -2508,11 +2511,11 @@
         <v>33</v>
       </c>
       <c r="E116">
-        <f>IF(C116=0,"",D116/C116)</f>
+        <f t="shared" si="1"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1995</v>
       </c>
@@ -2526,11 +2529,11 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <f>IF(C117=0,"",D117/C117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1995</v>
       </c>
@@ -2544,11 +2547,11 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <f>IF(C118=0,"",D118/C118)</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1995</v>
       </c>
@@ -2562,11 +2565,11 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <f>IF(C119=0,"",D119/C119)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1995</v>
       </c>
@@ -2580,11 +2583,11 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <f>IF(C120=0,"",D120/C120)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1995</v>
       </c>
@@ -2598,11 +2601,11 @@
         <v>14</v>
       </c>
       <c r="E121">
-        <f>IF(C121=0,"",D121/C121)</f>
+        <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1996</v>
       </c>
@@ -2616,11 +2619,11 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <f>IF(C122=0,"",D122/C122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1996</v>
       </c>
@@ -2634,11 +2637,11 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <f>IF(C123=0,"",D123/C123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1996</v>
       </c>
@@ -2652,11 +2655,11 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <f>IF(C124=0,"",D124/C124)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1996</v>
       </c>
@@ -2670,11 +2673,11 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <f>IF(C125=0,"",D125/C125)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1996</v>
       </c>
@@ -2688,11 +2691,11 @@
         <v>24</v>
       </c>
       <c r="E126">
-        <f>IF(C126=0,"",D126/C126)</f>
+        <f t="shared" si="1"/>
         <v>0.64864864864864868</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1997</v>
       </c>
@@ -2706,11 +2709,11 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <f>IF(C127=0,"",D127/C127)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1997</v>
       </c>
@@ -2724,11 +2727,11 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <f>IF(C128=0,"",D128/C128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1997</v>
       </c>
@@ -2742,11 +2745,11 @@
         <v>3</v>
       </c>
       <c r="E129">
-        <f>IF(C129=0,"",D129/C129)</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1997</v>
       </c>
@@ -2760,11 +2763,11 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <f>IF(C130=0,"",D130/C130)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ref="E130:E193" si="2">IF(C130=0,"",D130/C130)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1997</v>
       </c>
@@ -2778,11 +2781,11 @@
         <v>26</v>
       </c>
       <c r="E131">
-        <f>IF(C131=0,"",D131/C131)</f>
+        <f t="shared" si="2"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1998</v>
       </c>
@@ -2796,11 +2799,11 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <f>IF(C132=0,"",D132/C132)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1998</v>
       </c>
@@ -2814,11 +2817,11 @@
         <v>3</v>
       </c>
       <c r="E133">
-        <f>IF(C133=0,"",D133/C133)</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1998</v>
       </c>
@@ -2832,11 +2835,11 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <f>IF(C134=0,"",D134/C134)</f>
+        <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1998</v>
       </c>
@@ -2850,11 +2853,11 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <f>IF(C135=0,"",D135/C135)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1998</v>
       </c>
@@ -2868,11 +2871,11 @@
         <v>21</v>
       </c>
       <c r="E136">
-        <f>IF(C136=0,"",D136/C136)</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1999</v>
       </c>
@@ -2886,11 +2889,11 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <f>IF(C137=0,"",D137/C137)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1999</v>
       </c>
@@ -2904,11 +2907,11 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <f>IF(C138=0,"",D138/C138)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1999</v>
       </c>
@@ -2922,11 +2925,11 @@
         <v>4</v>
       </c>
       <c r="E139">
-        <f>IF(C139=0,"",D139/C139)</f>
+        <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1999</v>
       </c>
@@ -2940,11 +2943,11 @@
         <v>6</v>
       </c>
       <c r="E140">
-        <f>IF(C140=0,"",D140/C140)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1999</v>
       </c>
@@ -2958,11 +2961,11 @@
         <v>35</v>
       </c>
       <c r="E141">
-        <f>IF(C141=0,"",D141/C141)</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2000</v>
       </c>
@@ -2976,11 +2979,11 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <f>IF(C142=0,"",D142/C142)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2000</v>
       </c>
@@ -2994,11 +2997,11 @@
         <v>3</v>
       </c>
       <c r="E143">
-        <f>IF(C143=0,"",D143/C143)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2000</v>
       </c>
@@ -3012,11 +3015,11 @@
         <v>4</v>
       </c>
       <c r="E144">
-        <f>IF(C144=0,"",D144/C144)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2000</v>
       </c>
@@ -3030,11 +3033,11 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <f>IF(C145=0,"",D145/C145)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2000</v>
       </c>
@@ -3048,11 +3051,11 @@
         <v>29</v>
       </c>
       <c r="E146">
-        <f>IF(C146=0,"",D146/C146)</f>
+        <f t="shared" si="2"/>
         <v>0.69047619047619047</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2001</v>
       </c>
@@ -3066,11 +3069,11 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <f>IF(C147=0,"",D147/C147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2001</v>
       </c>
@@ -3082,11 +3085,11 @@
       </c>
       <c r="D148"/>
       <c r="E148" t="str">
-        <f>IF(C148=0,"",D148/C148)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2001</v>
       </c>
@@ -3100,11 +3103,11 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <f>IF(C149=0,"",D149/C149)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2001</v>
       </c>
@@ -3118,11 +3121,11 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <f>IF(C150=0,"",D150/C150)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2001</v>
       </c>
@@ -3136,11 +3139,11 @@
         <v>26</v>
       </c>
       <c r="E151">
-        <f>IF(C151=0,"",D151/C151)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2002</v>
       </c>
@@ -3154,11 +3157,11 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <f>IF(C152=0,"",D152/C152)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2002</v>
       </c>
@@ -3172,11 +3175,11 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <f>IF(C153=0,"",D153/C153)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2002</v>
       </c>
@@ -3190,11 +3193,11 @@
         <v>3</v>
       </c>
       <c r="E154">
-        <f>IF(C154=0,"",D154/C154)</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2002</v>
       </c>
@@ -3208,11 +3211,11 @@
         <v>9</v>
       </c>
       <c r="E155">
-        <f>IF(C155=0,"",D155/C155)</f>
+        <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2002</v>
       </c>
@@ -3226,11 +3229,11 @@
         <v>30</v>
       </c>
       <c r="E156">
-        <f>IF(C156=0,"",D156/C156)</f>
+        <f t="shared" si="2"/>
         <v>0.42253521126760563</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2003</v>
       </c>
@@ -3244,11 +3247,11 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <f>IF(C157=0,"",D157/C157)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2003</v>
       </c>
@@ -3262,11 +3265,11 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <f>IF(C158=0,"",D158/C158)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2003</v>
       </c>
@@ -3280,11 +3283,11 @@
         <v>1</v>
       </c>
       <c r="E159">
-        <f>IF(C159=0,"",D159/C159)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2003</v>
       </c>
@@ -3298,11 +3301,11 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <f>IF(C160=0,"",D160/C160)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2003</v>
       </c>
@@ -3316,11 +3319,11 @@
         <v>57</v>
       </c>
       <c r="E161">
-        <f>IF(C161=0,"",D161/C161)</f>
+        <f t="shared" si="2"/>
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -3334,11 +3337,11 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <f>IF(C162=0,"",D162/C162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -3352,11 +3355,11 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <f>IF(C163=0,"",D163/C163)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -3370,11 +3373,11 @@
         <v>1</v>
       </c>
       <c r="E164">
-        <f>IF(C164=0,"",D164/C164)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -3388,11 +3391,11 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <f>IF(C165=0,"",D165/C165)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -3406,11 +3409,11 @@
         <v>23</v>
       </c>
       <c r="E166">
-        <f>IF(C166=0,"",D166/C166)</f>
+        <f t="shared" si="2"/>
         <v>0.29870129870129869</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2005</v>
       </c>
@@ -3424,11 +3427,11 @@
         <v>1</v>
       </c>
       <c r="E167">
-        <f>IF(C167=0,"",D167/C167)</f>
+        <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2005</v>
       </c>
@@ -3442,11 +3445,11 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <f>IF(C168=0,"",D168/C168)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2005</v>
       </c>
@@ -3460,11 +3463,11 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <f>IF(C169=0,"",D169/C169)</f>
+        <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2005</v>
       </c>
@@ -3478,11 +3481,11 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <f>IF(C170=0,"",D170/C170)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2005</v>
       </c>
@@ -3496,11 +3499,11 @@
         <v>54</v>
       </c>
       <c r="E171">
-        <f>IF(C171=0,"",D171/C171)</f>
+        <f t="shared" si="2"/>
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2006</v>
       </c>
@@ -3514,11 +3517,11 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <f>IF(C172=0,"",D172/C172)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2006</v>
       </c>
@@ -3530,11 +3533,11 @@
       </c>
       <c r="D173"/>
       <c r="E173" t="str">
-        <f>IF(C173=0,"",D173/C173)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2006</v>
       </c>
@@ -3546,11 +3549,11 @@
       </c>
       <c r="D174"/>
       <c r="E174" t="str">
-        <f>IF(C174=0,"",D174/C174)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2006</v>
       </c>
@@ -3562,11 +3565,11 @@
       </c>
       <c r="D175"/>
       <c r="E175" t="str">
-        <f>IF(C175=0,"",D175/C175)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2006</v>
       </c>
@@ -3580,11 +3583,11 @@
         <v>57</v>
       </c>
       <c r="E176">
-        <f>IF(C176=0,"",D176/C176)</f>
+        <f t="shared" si="2"/>
         <v>0.47899159663865548</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2007</v>
       </c>
@@ -3598,11 +3601,11 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <f>IF(C177=0,"",D177/C177)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2007</v>
       </c>
@@ -3616,11 +3619,11 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <f>IF(C178=0,"",D178/C178)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2007</v>
       </c>
@@ -3634,11 +3637,11 @@
         <v>1</v>
       </c>
       <c r="E179">
-        <f>IF(C179=0,"",D179/C179)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2007</v>
       </c>
@@ -3652,11 +3655,11 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <f>IF(C180=0,"",D180/C180)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2007</v>
       </c>
@@ -3670,11 +3673,11 @@
         <v>62</v>
       </c>
       <c r="E181">
-        <f>IF(C181=0,"",D181/C181)</f>
+        <f t="shared" si="2"/>
         <v>0.73809523809523814</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2008</v>
       </c>
@@ -3688,11 +3691,11 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <f>IF(C182=0,"",D182/C182)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2008</v>
       </c>
@@ -3706,11 +3709,11 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <f>IF(C183=0,"",D183/C183)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2008</v>
       </c>
@@ -3724,11 +3727,11 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <f>IF(C184=0,"",D184/C184)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2008</v>
       </c>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="D185"/>
       <c r="E185" t="str">
-        <f>IF(C185=0,"",D185/C185)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2008</v>
       </c>
@@ -3758,11 +3761,11 @@
         <v>43</v>
       </c>
       <c r="E186">
-        <f>IF(C186=0,"",D186/C186)</f>
+        <f t="shared" si="2"/>
         <v>0.70491803278688525</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2009</v>
       </c>
@@ -3776,11 +3779,11 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <f>IF(C187=0,"",D187/C187)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2009</v>
       </c>
@@ -3794,11 +3797,11 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <f>IF(C188=0,"",D188/C188)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2009</v>
       </c>
@@ -3812,11 +3815,11 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <f>IF(C189=0,"",D189/C189)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2009</v>
       </c>
@@ -3830,11 +3833,11 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <f>IF(C190=0,"",D190/C190)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2009</v>
       </c>
@@ -3848,11 +3851,11 @@
         <v>59</v>
       </c>
       <c r="E191">
-        <f>IF(C191=0,"",D191/C191)</f>
+        <f t="shared" si="2"/>
         <v>0.56190476190476191</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2010</v>
       </c>
@@ -3864,11 +3867,11 @@
       </c>
       <c r="D192"/>
       <c r="E192" t="str">
-        <f>IF(C192=0,"",D192/C192)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2010</v>
       </c>
@@ -3880,11 +3883,11 @@
       </c>
       <c r="D193"/>
       <c r="E193" t="str">
-        <f>IF(C193=0,"",D193/C193)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2010</v>
       </c>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="D194"/>
       <c r="E194" t="str">
-        <f>IF(C194=0,"",D194/C194)</f>
+        <f t="shared" ref="E194:E257" si="3">IF(C194=0,"",D194/C194)</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2010</v>
       </c>
@@ -3914,11 +3917,11 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <f>IF(C195=0,"",D195/C195)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2010</v>
       </c>
@@ -3932,11 +3935,11 @@
         <v>35</v>
       </c>
       <c r="E196">
-        <f>IF(C196=0,"",D196/C196)</f>
+        <f t="shared" si="3"/>
         <v>0.30701754385964913</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2011</v>
       </c>
@@ -3950,11 +3953,11 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <f>IF(C197=0,"",D197/C197)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2011</v>
       </c>
@@ -3968,11 +3971,11 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <f>IF(C198=0,"",D198/C198)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2011</v>
       </c>
@@ -3984,11 +3987,11 @@
       </c>
       <c r="D199"/>
       <c r="E199" t="str">
-        <f>IF(C199=0,"",D199/C199)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2011</v>
       </c>
@@ -4000,11 +4003,11 @@
       </c>
       <c r="D200"/>
       <c r="E200" t="str">
-        <f>IF(C200=0,"",D200/C200)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2011</v>
       </c>
@@ -4018,11 +4021,11 @@
         <v>30</v>
       </c>
       <c r="E201">
-        <f>IF(C201=0,"",D201/C201)</f>
+        <f t="shared" si="3"/>
         <v>0.19607843137254902</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2012</v>
       </c>
@@ -4036,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <f>IF(C202=0,"",D202/C202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2012</v>
       </c>
@@ -4054,11 +4057,11 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <f>IF(C203=0,"",D203/C203)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2012</v>
       </c>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="D204"/>
       <c r="E204" t="str">
-        <f>IF(C204=0,"",D204/C204)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2012</v>
       </c>
@@ -4086,11 +4089,11 @@
       </c>
       <c r="D205"/>
       <c r="E205" t="str">
-        <f>IF(C205=0,"",D205/C205)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2012</v>
       </c>
@@ -4104,11 +4107,11 @@
         <v>5</v>
       </c>
       <c r="E206">
-        <f>IF(C206=0,"",D206/C206)</f>
+        <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2013</v>
       </c>
@@ -4122,11 +4125,11 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <f>IF(C207=0,"",D207/C207)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2013</v>
       </c>
@@ -4138,11 +4141,11 @@
       </c>
       <c r="D208"/>
       <c r="E208" t="str">
-        <f>IF(C208=0,"",D208/C208)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2013</v>
       </c>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="D209"/>
       <c r="E209" t="str">
-        <f>IF(C209=0,"",D209/C209)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2013</v>
       </c>
@@ -4172,11 +4175,11 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <f>IF(C210=0,"",D210/C210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2013</v>
       </c>
@@ -4190,11 +4193,11 @@
         <v>6</v>
       </c>
       <c r="E211">
-        <f>IF(C211=0,"",D211/C211)</f>
+        <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2014</v>
       </c>
@@ -4208,11 +4211,11 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <f>IF(C212=0,"",D212/C212)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2014</v>
       </c>
@@ -4224,11 +4227,11 @@
       </c>
       <c r="D213"/>
       <c r="E213" t="str">
-        <f>IF(C213=0,"",D213/C213)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2014</v>
       </c>
@@ -4242,11 +4245,11 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <f>IF(C214=0,"",D214/C214)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2014</v>
       </c>
@@ -4260,11 +4263,11 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <f>IF(C215=0,"",D215/C215)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2014</v>
       </c>
@@ -4278,11 +4281,11 @@
         <v>65</v>
       </c>
       <c r="E216">
-        <f>IF(C216=0,"",D216/C216)</f>
+        <f t="shared" si="3"/>
         <v>0.85526315789473684</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2015</v>
       </c>
@@ -4294,11 +4297,11 @@
       </c>
       <c r="D217"/>
       <c r="E217" t="str">
-        <f>IF(C217=0,"",D217/C217)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2015</v>
       </c>
@@ -4312,11 +4315,11 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <f>IF(C218=0,"",D218/C218)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="D219"/>
       <c r="E219" t="str">
-        <f>IF(C219=0,"",D219/C219)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -4346,11 +4349,11 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <f>IF(C220=0,"",D220/C220)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -4364,11 +4367,11 @@
         <v>15</v>
       </c>
       <c r="E221">
-        <f>IF(C221=0,"",D221/C221)</f>
+        <f t="shared" si="3"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2016</v>
       </c>
@@ -4382,11 +4385,11 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <f>IF(C222=0,"",D222/C222)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2016</v>
       </c>
@@ -4400,11 +4403,11 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <f>IF(C223=0,"",D223/C223)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2016</v>
       </c>
@@ -4418,11 +4421,11 @@
         <v>2</v>
       </c>
       <c r="E224">
-        <f>IF(C224=0,"",D224/C224)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2016</v>
       </c>
@@ -4436,11 +4439,11 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <f>IF(C225=0,"",D225/C225)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2016</v>
       </c>
@@ -4454,11 +4457,11 @@
         <v>69</v>
       </c>
       <c r="E226">
-        <f>IF(C226=0,"",D226/C226)</f>
+        <f t="shared" si="3"/>
         <v>0.74193548387096775</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2017</v>
       </c>
@@ -4472,11 +4475,11 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <f>IF(C227=0,"",D227/C227)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2017</v>
       </c>
@@ -4490,11 +4493,11 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <f>IF(C228=0,"",D228/C228)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2017</v>
       </c>
@@ -4506,11 +4509,11 @@
       </c>
       <c r="D229"/>
       <c r="E229" t="str">
-        <f>IF(C229=0,"",D229/C229)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2017</v>
       </c>
@@ -4524,11 +4527,11 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <f>IF(C230=0,"",D230/C230)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2017</v>
       </c>
@@ -4542,11 +4545,11 @@
         <v>29</v>
       </c>
       <c r="E231">
-        <f>IF(C231=0,"",D231/C231)</f>
+        <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2018</v>
       </c>
@@ -4560,11 +4563,11 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <f>IF(C232=0,"",D232/C232)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2018</v>
       </c>
@@ -4578,11 +4581,11 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <f>IF(C233=0,"",D233/C233)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2018</v>
       </c>
@@ -4596,11 +4599,11 @@
         <v>1</v>
       </c>
       <c r="E234">
-        <f>IF(C234=0,"",D234/C234)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2018</v>
       </c>
@@ -4614,11 +4617,11 @@
         <v>1</v>
       </c>
       <c r="E235">
-        <f>IF(C235=0,"",D235/C235)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2018</v>
       </c>
@@ -4632,11 +4635,11 @@
         <v>51</v>
       </c>
       <c r="E236">
-        <f>IF(C236=0,"",D236/C236)</f>
+        <f t="shared" si="3"/>
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -4650,11 +4653,11 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <f>IF(C237=0,"",D237/C237)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -4668,11 +4671,11 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <f>IF(C238=0,"",D238/C238)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2019</v>
       </c>
@@ -4686,11 +4689,11 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <f>IF(C239=0,"",D239/C239)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2019</v>
       </c>
@@ -4704,11 +4707,11 @@
         <v>1</v>
       </c>
       <c r="E240">
-        <f>IF(C240=0,"",D240/C240)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2019</v>
       </c>
@@ -4722,233 +4725,233 @@
         <v>80</v>
       </c>
       <c r="E241">
-        <f>IF(C241=0,"",D241/C241)</f>
+        <f t="shared" si="3"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
